--- a/data/trans_camb/P26-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P26-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,77</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 7,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 4,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,73; -6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 5,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; -7,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,16; -18,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 5,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; -3,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; -14,01</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 39,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,67; 21,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,59; -31,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; 17,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,18; -24,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,2; -58,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 21,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,15; -12,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,26; -52,71</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,12</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-27,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 6,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,26; -2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,48; -12,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,44; -8,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,69; -24,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 4,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,09; -6,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,17; -19,76</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,88%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,42%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,83; 21,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,93; -9,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,4; -35,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 13,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,79; -21,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,38; -60,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 13,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,27; -17,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,19; -51,37</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,98</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 9,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,0; -0,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,34; -11,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 6,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,89; 0,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,71; -13,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 6,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,76; -1,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,3; -13,19</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,09%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; 44,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,18; -0,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,16; -47,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,45; 26,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,28; -0,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,57; -50,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,3; 26,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,4; -8,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,43; -52,26</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,85</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,91</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 6,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,76; -1,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,47; -10,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 4,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; -7,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,23; -21,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 4,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; -5,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,55; -17,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,2%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,83%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,53%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,39; 23,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,19; -4,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,09; -35,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; 11,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,94; -22,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,67; -60,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 14,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,07; -16,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,27; -52,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>-10,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,76</t>
+          <t>-21,48</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,77</t>
+          <t>-16,48</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,73; -6,6</t>
+          <t>-14,38; -6,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,16; -18,36</t>
+          <t>-24,96; -18,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,2; -14,01</t>
+          <t>-18,9; -13,68</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-48,28%</t>
+          <t>-47,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-66,41%</t>
+          <t>-65,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-60,02%</t>
+          <t>-58,99%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-61,59; -31,04</t>
+          <t>-60,7; -28,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,2; -58,5</t>
+          <t>-71,65; -57,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,26; -52,71</t>
+          <t>-65,42; -51,3</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,65</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-27,96</t>
+          <t>-28,89</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-23,66</t>
+          <t>-19,91</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -12,13</t>
+          <t>-22,42; 12,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,69; -24,93</t>
+          <t>-33,9; -25,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -19,76</t>
+          <t>-25,94; -2,08</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-58,88%</t>
+          <t>-33,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-65,49%</t>
+          <t>-67,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-62,42%</t>
+          <t>-52,52%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -35,32</t>
+          <t>-66,44; 39,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,38; -60,94</t>
+          <t>-76,14; -61,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,19; -51,37</t>
+          <t>-67,69; -4,12</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,66</t>
+          <t>-15,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-17,87</t>
+          <t>-17,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-16,63</t>
+          <t>-16,28</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,34; -11,16</t>
+          <t>-19,99; -10,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -13,09</t>
+          <t>-22,55; -12,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -13,19</t>
+          <t>-20,05; -12,92</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,67%</t>
+          <t>-58,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-61,9%</t>
+          <t>-60,96%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-61,09%</t>
+          <t>-59,82%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,16; -47,55</t>
+          <t>-70,13; -45,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,57; -50,62</t>
+          <t>-70,0; -49,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-68,43; -52,26</t>
+          <t>-67,62; -50,45</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-15,99</t>
+          <t>-10,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-23,81</t>
+          <t>-24,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-19,91</t>
+          <t>-17,28</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -10,96</t>
+          <t>-17,54; 10,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-26,23; -21,64</t>
+          <t>-27,26; -21,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -17,21</t>
+          <t>-21,13; -4,99</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-55,84%</t>
+          <t>-35,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-64,2%</t>
+          <t>-65,3%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-60,53%</t>
+          <t>-52,54%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,09; -35,93</t>
+          <t>-60,74; 36,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,67; -60,16</t>
+          <t>-71,96; -60,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,27; -52,95</t>
+          <t>-63,73; -15,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P26-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,9</t>
+          <t>0,16; 8,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,34</t>
+          <t>-4,1; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,38; -6,17</t>
+          <t>-14,35; -6,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 5,48</t>
+          <t>-2,3; 5,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,36; -7,5</t>
+          <t>-15,24; -7,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,96; -18,17</t>
+          <t>-24,71; -17,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,61</t>
+          <t>0,16; 5,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -3,33</t>
+          <t>-9,29; -3,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,9; -13,68</t>
+          <t>-18,99; -13,49</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 39,27</t>
+          <t>0,83; 39,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,67; 21,82</t>
+          <t>-17,3; 19,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,7; -28,7</t>
+          <t>-61,35; -29,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 17,89</t>
+          <t>-6,97; 19,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,18; -24,32</t>
+          <t>-44,16; -24,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,65; -57,57</t>
+          <t>-71,55; -57,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 21,07</t>
+          <t>0,69; 21,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,15; -12,58</t>
+          <t>-31,61; -13,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -51,3</t>
+          <t>-65,53; -50,47</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,8</t>
+          <t>0,92; 7,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,26; -2,9</t>
+          <t>-8,85; -2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 12,91</t>
+          <t>-22,21; 10,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,53</t>
+          <t>-1,65; 5,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; -8,78</t>
+          <t>-15,65; -8,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,9; -25,65</t>
+          <t>-33,37; -25,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,99</t>
+          <t>0,25; 5,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; -6,51</t>
+          <t>-11,14; -6,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -2,08</t>
+          <t>-25,72; -4,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 21,49</t>
+          <t>2,65; 23,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,93; -9,07</t>
+          <t>-25,27; -8,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 39,49</t>
+          <t>-65,94; 32,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 13,45</t>
+          <t>-3,79; 13,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,79; -21,49</t>
+          <t>-34,99; -21,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,14; -61,81</t>
+          <t>-76,69; -61,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 13,67</t>
+          <t>0,61; 14,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,27; -17,94</t>
+          <t>-28,25; -17,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,69; -4,12</t>
+          <t>-67,11; -12,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 9,93</t>
+          <t>-1,73; 10,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,0; -0,15</t>
+          <t>-10,89; -0,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,99; -10,56</t>
+          <t>-19,83; -10,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 6,71</t>
+          <t>-6,18; 6,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 0,01</t>
+          <t>-12,12; -0,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,55; -12,92</t>
+          <t>-22,57; -12,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,53</t>
+          <t>-2,51; 6,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -1,93</t>
+          <t>-9,99; -2,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,05; -12,92</t>
+          <t>-19,84; -12,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 44,26</t>
+          <t>-6,42; 44,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,18; -0,59</t>
+          <t>-38,57; -0,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,13; -45,66</t>
+          <t>-70,58; -45,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 26,84</t>
+          <t>-19,39; 26,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,28; -0,27</t>
+          <t>-38,38; -1,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,0; -49,2</t>
+          <t>-69,66; -48,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 26,51</t>
+          <t>-8,95; 25,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,4; -8,17</t>
+          <t>-34,68; -8,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-67,62; -50,45</t>
+          <t>-66,98; -50,24</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,62</t>
+          <t>2,14; 6,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,19</t>
+          <t>-5,91; -1,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 10,14</t>
+          <t>-17,52; 10,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,08</t>
+          <t>-0,94; 4,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -7,98</t>
+          <t>-12,62; -7,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,26; -21,96</t>
+          <t>-27,15; -21,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,64</t>
+          <t>1,32; 4,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -5,18</t>
+          <t>-8,31; -5,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -4,99</t>
+          <t>-21,03; -5,3</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,39; 23,85</t>
+          <t>7,08; 24,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -4,2</t>
+          <t>-19,95; -4,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,74; 36,02</t>
+          <t>-60,79; 37,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,29</t>
+          <t>-2,4; 11,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,94; -22,15</t>
+          <t>-33,05; -21,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-71,96; -60,76</t>
+          <t>-72,34; -60,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,04; 14,69</t>
+          <t>3,95; 14,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -16,29</t>
+          <t>-24,78; -16,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,73; -15,03</t>
+          <t>-63,72; -16,33</t>
         </is>
       </c>
     </row>
